--- a/M5_Automotores/M5_Automotores.xlsx
+++ b/M5_Automotores/M5_Automotores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Desktop\SQL-Coder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Desktop\SQL-Coder\M5_Automotores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5079A024-D547-4E1C-B513-EB4717AD7ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973F79CF-DA2D-4FEA-959D-4B5028765FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="130">
   <si>
     <t>Descripcion</t>
   </si>
@@ -346,6 +346,75 @@
   </si>
   <si>
     <t>SERVICE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>CONTROL OT</t>
+  </si>
+  <si>
+    <t>AUDITS</t>
+  </si>
+  <si>
+    <t>Tabla 9</t>
+  </si>
+  <si>
+    <t>Tabla 10</t>
+  </si>
+  <si>
+    <t>Se crea para tener informacion adicional de cuando se inserta una orden de trabajo</t>
+  </si>
+  <si>
+    <t>Se crea para llevar un cotrol de los cambios de las tablas</t>
+  </si>
+  <si>
+    <t>CONTROL_ID</t>
+  </si>
+  <si>
+    <t>FECHA_INSERCION</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>ID DE LA INSERCION</t>
+  </si>
+  <si>
+    <t>FECHA EN LA QUE SE INSERTA UNA OT</t>
+  </si>
+  <si>
+    <t>ID_LOG</t>
+  </si>
+  <si>
+    <t>ID DEL LOG</t>
+  </si>
+  <si>
+    <t>ENTITY</t>
+  </si>
+  <si>
+    <t>ENTITY_ID</t>
+  </si>
+  <si>
+    <t>OPERATION</t>
+  </si>
+  <si>
+    <t>INSERT_DT</t>
+  </si>
+  <si>
+    <t>CREATED_BY</t>
+  </si>
+  <si>
+    <t>ENTIDAD</t>
+  </si>
+  <si>
+    <t>ID DE LA ENTIDAD</t>
+  </si>
+  <si>
+    <t>OPERACIÓN (INSERT, UPDATE, DELETE)</t>
+  </si>
+  <si>
+    <t>QUIEN REALIZO LA OPERACIÓN</t>
+  </si>
+  <si>
+    <t>FECHA DE LA OPERACIÓN</t>
   </si>
 </sst>
 </file>
@@ -827,10 +896,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:K73"/>
+  <dimension ref="B2:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68:I68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,14 +907,14 @@
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.21875" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5546875" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>83</v>
       </c>
@@ -859,7 +928,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -873,7 +942,7 @@
       <c r="H3" s="22"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -898,11 +967,8 @@
       <c r="I4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>68</v>
       </c>
@@ -924,7 +990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
         <v>14</v>
@@ -944,7 +1010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -964,7 +1030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
         <v>16</v>
@@ -984,7 +1050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>18</v>
@@ -1002,7 +1068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
         <v>19</v>
@@ -1022,7 +1088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>84</v>
       </c>
@@ -1036,7 +1102,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1116,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>1</v>
       </c>
@@ -1076,7 +1142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1097,11 +1163,8 @@
       <c r="I15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
         <v>30</v>
@@ -1123,7 +1186,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1145,7 +1208,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
         <v>34</v>
@@ -1161,7 +1224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>69</v>
       </c>
@@ -1181,7 +1244,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -1191,7 +1254,7 @@
       <c r="H20" s="16"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>85</v>
       </c>
@@ -1205,7 +1268,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +1282,7 @@
       <c r="H22" s="22"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>68</v>
       </c>
@@ -1266,11 +1329,8 @@
       <c r="I24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
         <v>31</v>
@@ -1290,7 +1350,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>81</v>
@@ -1308,7 +1368,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>86</v>
       </c>
@@ -1322,7 +1382,7 @@
       <c r="H28" s="19"/>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1396,7 @@
       <c r="H29" s="22"/>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>1</v>
       </c>
@@ -1362,7 +1422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>68</v>
       </c>
@@ -1383,11 +1443,8 @@
       <c r="I31" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="K31">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>69</v>
       </c>
@@ -1407,7 +1464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>69</v>
       </c>
@@ -1427,7 +1484,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
@@ -1447,7 +1504,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>69</v>
       </c>
@@ -1467,7 +1524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>69</v>
       </c>
@@ -1487,7 +1544,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
         <v>105</v>
@@ -1505,7 +1562,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
         <v>45</v>
@@ -1521,7 +1578,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
         <v>46</v>
@@ -1539,7 +1596,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
         <v>106</v>
@@ -1557,7 +1614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
         <v>99</v>
@@ -1575,7 +1632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>101</v>
@@ -1593,7 +1650,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
         <v>87</v>
       </c>
@@ -1607,7 +1664,7 @@
       <c r="H44" s="19"/>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1678,7 @@
       <c r="H45" s="22"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>1</v>
       </c>
@@ -1647,7 +1704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>68</v>
       </c>
@@ -1669,7 +1726,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
         <v>44</v>
@@ -1690,11 +1747,8 @@
       <c r="I48" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K48">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
         <v>55</v>
@@ -1714,7 +1768,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="6" t="s">
         <v>88</v>
       </c>
@@ -1728,7 +1782,7 @@
       <c r="H51" s="19"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>0</v>
       </c>
@@ -1742,7 +1796,7 @@
       <c r="H52" s="22"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>1</v>
       </c>
@@ -1768,7 +1822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>68</v>
       </c>
@@ -1790,7 +1844,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>75</v>
@@ -1811,11 +1865,8 @@
       <c r="I55" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K55">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8"/>
       <c r="C56" s="8" t="s">
         <v>56</v>
@@ -1835,7 +1886,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
         <v>17</v>
@@ -1853,7 +1904,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>69</v>
       </c>
@@ -1873,7 +1924,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="6" t="s">
         <v>89</v>
       </c>
@@ -1887,7 +1938,7 @@
       <c r="H60" s="19"/>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>0</v>
       </c>
@@ -1901,7 +1952,7 @@
       <c r="H61" s="22"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>1</v>
       </c>
@@ -1927,7 +1978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>68</v>
       </c>
@@ -1948,11 +1999,8 @@
       <c r="I63" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K63">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8"/>
       <c r="C64" s="8" t="s">
         <v>66</v>
@@ -1974,7 +2022,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
         <v>91</v>
@@ -1992,7 +2040,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8"/>
       <c r="C66" s="8" t="s">
         <v>93</v>
@@ -2010,7 +2058,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
         <v>90</v>
       </c>
@@ -2024,7 +2072,7 @@
       <c r="H68" s="19"/>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>0</v>
       </c>
@@ -2038,7 +2086,7 @@
       <c r="H69" s="22"/>
       <c r="I69" s="23"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>1</v>
       </c>
@@ -2064,7 +2112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
         <v>68</v>
       </c>
@@ -2086,7 +2134,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8"/>
       <c r="C72" s="8" t="s">
         <v>42</v>
@@ -2107,11 +2155,8 @@
       <c r="I72" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
         <v>92</v>
@@ -2129,8 +2174,305 @@
         <v>51</v>
       </c>
     </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="20"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="23"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="5"/>
+      <c r="I78" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B79" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="13"/>
+      <c r="I79" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="20"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="23"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="5"/>
+      <c r="I85" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="8"/>
+      <c r="C86" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="13">
+        <v>100</v>
+      </c>
+      <c r="F86" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="8"/>
+      <c r="C88" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" s="13">
+        <v>50</v>
+      </c>
+      <c r="F88" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="8"/>
+      <c r="C90" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="13">
+        <v>100</v>
+      </c>
+      <c r="F90" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="20">
+    <mergeCell ref="C75:I75"/>
+    <mergeCell ref="C76:I76"/>
+    <mergeCell ref="C82:I82"/>
+    <mergeCell ref="C83:I83"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C28:I28"/>
     <mergeCell ref="C68:I68"/>
     <mergeCell ref="C69:I69"/>
     <mergeCell ref="C21:I21"/>
@@ -2142,11 +2484,6 @@
     <mergeCell ref="C51:I51"/>
     <mergeCell ref="C52:I52"/>
     <mergeCell ref="C60:I60"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C28:I28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
